--- a/数据.xlsx
+++ b/数据.xlsx
@@ -2,14 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10905" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="单缝" sheetId="1" r:id="rId1"/>
+    <sheet name="宏1" sheetId="2" state="hidden" r:id="rId1"/>
+    <sheet name="宏2" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="单缝" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>左方次极大位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +49,22 @@
   </si>
   <si>
     <t>位置$/mm$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光学元件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探测器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单缝位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置$/cm$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +146,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -25246,11 +25264,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J4000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1643" workbookViewId="0">
-      <selection activeCell="E1661" sqref="E1661:J1662"/>
+    <sheetView tabSelected="1" topLeftCell="A668" workbookViewId="0">
+      <selection activeCell="B1123" sqref="B1123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -37551,7 +37597,7 @@
         <v>3233</v>
       </c>
     </row>
-    <row r="1537" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1537" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1537">
         <v>7.68</v>
       </c>
@@ -37559,7 +37605,7 @@
         <v>3243</v>
       </c>
     </row>
-    <row r="1538" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1538" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1538">
         <v>7.6849999999999996</v>
       </c>
@@ -37567,7 +37613,7 @@
         <v>3254</v>
       </c>
     </row>
-    <row r="1539" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1539" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1539">
         <v>7.69</v>
       </c>
@@ -37575,7 +37621,7 @@
         <v>3264</v>
       </c>
     </row>
-    <row r="1540" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1540" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1540">
         <v>7.6950000000000003</v>
       </c>
@@ -37583,7 +37629,7 @@
         <v>3274</v>
       </c>
     </row>
-    <row r="1541" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1541" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1541">
         <v>7.7</v>
       </c>
@@ -37591,7 +37637,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="1542" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1542" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1542">
         <v>7.7050000000000001</v>
       </c>
@@ -37599,7 +37645,7 @@
         <v>3294</v>
       </c>
     </row>
-    <row r="1543" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1543" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1543">
         <v>7.71</v>
       </c>
@@ -37607,15 +37653,19 @@
         <v>3304</v>
       </c>
     </row>
-    <row r="1544" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1544" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1544">
         <v>7.7149999999999999</v>
       </c>
       <c r="B1544">
         <v>3315</v>
       </c>
-    </row>
-    <row r="1545" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C1544">
+        <f>MAX(B1100:B1200)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1545">
         <v>7.72</v>
       </c>
@@ -37623,7 +37673,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="1546" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1546" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1546">
         <v>7.7249999999999996</v>
       </c>
@@ -37631,7 +37681,7 @@
         <v>3335</v>
       </c>
     </row>
-    <row r="1547" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1547" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1547">
         <v>7.73</v>
       </c>
@@ -37639,7 +37689,7 @@
         <v>3344</v>
       </c>
     </row>
-    <row r="1548" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1548" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1548">
         <v>7.7350000000000003</v>
       </c>
@@ -37647,7 +37697,7 @@
         <v>3354</v>
       </c>
     </row>
-    <row r="1549" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1549" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1549">
         <v>7.74</v>
       </c>
@@ -37655,7 +37705,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="1550" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1550" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1550">
         <v>7.7450000000000001</v>
       </c>
@@ -37663,7 +37713,7 @@
         <v>3372</v>
       </c>
     </row>
-    <row r="1551" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1551" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1551">
         <v>7.75</v>
       </c>
@@ -37671,7 +37721,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="1552" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1552" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1552">
         <v>7.7549999999999999</v>
       </c>
@@ -38610,16 +38660,34 @@
       <c r="B1664">
         <v>3932</v>
       </c>
-    </row>
-    <row r="1665" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="E1664" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1664" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1664" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1665">
         <v>8.32</v>
       </c>
       <c r="B1665">
         <v>3933</v>
       </c>
-    </row>
-    <row r="1666" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="E1665" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1665">
+        <v>14.88</v>
+      </c>
+      <c r="G1665">
+        <v>72.55</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1666">
         <v>8.3249999999999993</v>
       </c>
@@ -38627,7 +38695,7 @@
         <v>3933</v>
       </c>
     </row>
-    <row r="1667" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1667" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1667">
         <v>8.33</v>
       </c>
@@ -38635,7 +38703,7 @@
         <v>3934</v>
       </c>
     </row>
-    <row r="1668" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1668" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1668">
         <v>8.3350000000000009</v>
       </c>
@@ -38643,7 +38711,7 @@
         <v>3934</v>
       </c>
     </row>
-    <row r="1669" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1669" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1669">
         <v>8.34</v>
       </c>
@@ -38651,7 +38719,7 @@
         <v>3934</v>
       </c>
     </row>
-    <row r="1670" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1670" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1670">
         <v>8.3450000000000006</v>
       </c>
@@ -38659,7 +38727,7 @@
         <v>3934</v>
       </c>
     </row>
-    <row r="1671" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1671" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1671">
         <v>8.35</v>
       </c>
@@ -38667,7 +38735,7 @@
         <v>3934</v>
       </c>
     </row>
-    <row r="1672" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1672" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1672">
         <v>8.3550000000000004</v>
       </c>
@@ -38675,7 +38743,7 @@
         <v>3934</v>
       </c>
     </row>
-    <row r="1673" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1673" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1673">
         <v>8.36</v>
       </c>
@@ -38683,7 +38751,7 @@
         <v>3934</v>
       </c>
     </row>
-    <row r="1674" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1674" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1674">
         <v>8.3650000000000002</v>
       </c>
@@ -38691,7 +38759,7 @@
         <v>3934</v>
       </c>
     </row>
-    <row r="1675" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1675" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1675">
         <v>8.3699999999999992</v>
       </c>
@@ -38699,7 +38767,7 @@
         <v>3934</v>
       </c>
     </row>
-    <row r="1676" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1676" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1676">
         <v>8.375</v>
       </c>
@@ -38707,7 +38775,7 @@
         <v>3933</v>
       </c>
     </row>
-    <row r="1677" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1677" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1677">
         <v>8.3800000000000008</v>
       </c>
@@ -38715,7 +38783,7 @@
         <v>3933</v>
       </c>
     </row>
-    <row r="1678" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1678" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1678">
         <v>8.3849999999999998</v>
       </c>
@@ -38723,7 +38791,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="1679" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1679" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1679">
         <v>8.39</v>
       </c>
@@ -38731,7 +38799,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="1680" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1680" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1680">
         <v>8.3949999999999996</v>
       </c>
